--- a/Result/check3/2025-03-07.xlsx
+++ b/Result/check3/2025-03-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS39"/>
+  <dimension ref="A1:AS42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,17 +718,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>164</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2842</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>18.81</t>
+          <t>18.61</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>35.58</t>
+          <t>35.41</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>28819</t>
+          <t>28504</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1714</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.92</t>
+          <t>20.33</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>89.52</t>
+          <t>89.62</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>18803</t>
+          <t>18271</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1122,17 +1122,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8155</t>
+          <t>8176</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.19</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2064.0</t>
+          <t>2972.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16.74</t>
+          <t>71.03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>133.5</t>
+          <t>16.3</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1172,72 +1172,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>19.34</t>
+          <t>-4.82</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7885</t>
+          <t>552</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>-5.46</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>183.0</t>
+          <t>248.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1247,37 +1247,37 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>727242.0</t>
+          <t>57507.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>博智</t>
+          <t>智捷</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1287,47 +1287,47 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>35.29</t>
+          <t>34.56</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>67.7</t>
+          <t>146.62</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>9265</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>印刷電路板(PCB)99.08%、其他0.92% (2023年)</t>
+          <t>商品銷售73.18%、G及IOT15.17%、工業11.65% (2023年)</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>博智-電子零組件業-上櫃</t>
+          <t>智捷-通信網路業-上櫃</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>43.21</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1349,17 +1349,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8072</t>
+          <t>8155</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.33</t>
+          <t>-2.19</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1326.965</t>
+          <t>2064.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,27 +1369,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>58.61</t>
+          <t>16.74</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>27.8</t>
+          <t>133.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1399,57 +1399,57 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>16.56</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2264</t>
+          <t>2652</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-10.59</t>
+          <t>-2.79</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1459,22 +1459,22 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>224.0</t>
+          <t>183.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1484,77 +1484,77 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>36793998.0</t>
+          <t>727242.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>陞泰</t>
+          <t>博智</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>34.12</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>17.52</t>
+          <t>67.48</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2304</t>
+          <t>8957</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>視訊監視系統100.00% (2023年)</t>
+          <t>印刷電路板(PCB)99.08%、其他0.92% (2023年)</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>陞泰-電子通路業-上市</t>
+          <t>博智-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>43.21</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8011</t>
+          <t>8072</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-2.33</t>
+          <t>9.33</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>907.969</t>
+          <t>1326.965</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>58.61</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>23.2</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1626,72 +1626,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>797</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-3.88</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>224.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1701,37 +1701,37 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>69</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>18984028.0</t>
+          <t>36793998.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>台通</t>
+          <t>陞泰</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1741,47 +1741,47 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>35.38</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>133.03</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>4040</t>
+          <t>2264</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>通訊服務35.06%、工程27.02%、光纜及光纖到家相關配件22.63%、局內外傳輸線材11.37%、其他3.92% (2023年)</t>
+          <t>視訊監視系統100.00% (2023年)</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>台通-通信網路業-上市</t>
+          <t>陞泰-電子通路業-上市</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>19.75</t>
+          <t>28.14</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1853,17 +1853,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>9613</t>
+          <t>4811</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>84.8</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>35.2</t>
+          <t>35.07</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>4515</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -2030,17 +2030,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6805</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1507.288</t>
+          <t>1870.321</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,17 +2050,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>20.14</t>
+          <t>34.14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>747.0</t>
+          <t>2030.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2080,57 +2080,57 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>-4.1</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>77</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2761</t>
+          <t>1765</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>-2.56</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>-77.58</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-6.87</t>
+          <t>-88.47</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2160,32 +2160,32 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-1258311643.0</t>
+          <t>9005137350.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>富世達</t>
+          <t>緯穎</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2195,47 +2195,47 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>40.4</t>
+          <t>622.11</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>40.95</t>
+          <t>15.91</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>122.44</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>50249</t>
+          <t>362388</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>C電子產品組件100.00% (2023年)</t>
+          <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>富世達-電子零組件業-上市</t>
+          <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>80.91</t>
+          <t>474.62</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
@@ -2257,17 +2257,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>6606</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1870.321</t>
+          <t>88.008</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,17 +2277,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>34.14</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2030.0</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2307,72 +2307,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>587</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-77.58</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-88.47</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2387,32 +2387,32 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>9005137350.0</t>
+          <t>2077307.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>緯穎</t>
+          <t>建德工業</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2422,47 +2422,47 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>622.11</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>16.44</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>125.17</t>
+          <t>39.31</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>374468</t>
+          <t>3381</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>資料中心產品100.00% (2024年)</t>
+          <t>磨床及加工中心92.78%、零組件及其他7.22% (2023年)</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>緯穎-電腦及週邊設備業-上市</t>
+          <t>建德工業-電機機械-上市</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>474.62</t>
+          <t>16.64</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -2534,17 +2534,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>-2.64</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2659,17 +2659,17 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>34064</t>
+          <t>33187</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2761,17 +2761,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>49</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>1031</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2781,12 +2781,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2886,17 +2886,17 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>13.98</t>
+          <t>14.12</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>38.19</t>
+          <t>38.03</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>73896</t>
+          <t>74636</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
@@ -2988,17 +2988,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>607</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3113,17 +3113,17 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>19.13</t>
+          <t>19.05</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>83.13</t>
+          <t>82.69</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2462</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
@@ -3165,17 +3165,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>21887.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3185,142 +3185,142 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>40.56</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>28.84</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>21186</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>87.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>459432.0</t>
+          <t>8783.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>信立</t>
+          <t>光明</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3330,47 +3330,47 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>33.44</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>11.15</t>
+          <t>54.68</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>7135</t>
+          <t>2601</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
+          <t>聚酯加工絲94.91%、租賃4.56%、加工業務0.50%、聚酯原絲0.03% (2023年)</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>信立-塑膠工業-上櫃</t>
+          <t>光明-紡織纖維-上櫃</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>塑膠工業右上</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>37.33</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -3392,17 +3392,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2149.688</t>
+          <t>21887.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3412,27 +3412,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21.34</t>
+          <t>40.56</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>210.5</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3442,162 +3442,162 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>29.23</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>243</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3373</t>
+          <t>34749</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>700283477.0</t>
+          <t>459432.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>智易</t>
+          <t>信立</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>54.85</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>19.68</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>133.03</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>48919</t>
+          <t>7174</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>智易-通信網路業-上市</t>
+          <t>信立-塑膠工業-上櫃</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>塑膠工業右上</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>72.32</t>
+          <t>25.03</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3563</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3143.348</t>
+          <t>1064.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3639,27 +3639,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>57.16</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>535.0</t>
+          <t>33.05</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3669,72 +3669,72 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2335</t>
+          <t>1512</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>35.22</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3749,82 +3749,82 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>5065772551.0</t>
+          <t>61178.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>牧德</t>
+          <t>健喬</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>105.98</t>
+          <t>20.88</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>89.62</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>26166</t>
+          <t>15997</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>光學檢測機84.39%、勞務15.61% (2024年)</t>
+          <t>自製產品72.13%、外購25.75%、其他2.12% (2023年)</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>牧德-光電業-上市</t>
+          <t>健喬-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
@@ -3846,17 +3846,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4827.964</t>
+          <t>2149.688</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3866,27 +3866,27 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>21.34</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>210.5</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3896,72 +3896,72 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>29.76</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2034</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-2.93</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>205.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -3981,27 +3981,27 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>297423899.0</t>
+          <t>700283477.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>安馳</t>
+          <t>智易</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4011,47 +4011,47 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>54.85</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>21.08</t>
+          <t>19.64</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>17.52</t>
+          <t>133.64</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>5843</t>
+          <t>48808</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>類比IC27.30%、邏輯IC26.06%、混合信號積體電路(IC)23.88%、其他22.76% (2023年)</t>
+          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>安馳-電子通路業-上市</t>
+          <t>智易-通信網路業-上市</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>29.54</t>
+          <t>72.32</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
@@ -4073,17 +4073,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5997.0</t>
+          <t>509.886</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4093,27 +4093,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>87.1</t>
+          <t>24.45</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4123,57 +4123,57 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>6907</t>
+          <t>655</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>31.80</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4198,87 +4198,87 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>545755.0</t>
+          <t>-13523162.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>艾笛森</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>75.07</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>31052</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>動態隨機存取記憶體產品(DRAM47.54%、NandFlash產品43.20%、其他9.26% (2023年)</t>
+          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>威剛-半導體業-上櫃</t>
+          <t>艾笛森-光電業-上市</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>56.66</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -4300,17 +4300,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23595.0</t>
+          <t>3143.348</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4320,192 +4320,192 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>31.47</t>
+          <t>57.16</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>535.0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1732</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-3.18</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>190.5</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>6546</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>-0.78</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>-1.30</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>-2.77</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>92.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>-14.0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>10334985.0</t>
+          <t>5065772551.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>順達</t>
+          <t>牧德</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>10.42</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>101.63</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>38.19</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>29062</t>
+          <t>25092</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
+          <t>光學檢測機84.39%、勞務15.61% (2024年)</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>順達-電腦及週邊設備業-上櫃</t>
+          <t>牧德-光電業-上市</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>86.18</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5524.671</t>
+          <t>4827.964</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4547,27 +4547,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>23.40</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>117.0</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4577,72 +4577,72 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>4434</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>-6.26</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>205.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4657,32 +4657,32 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>924006711.0</t>
+          <t>297423899.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>台灣大</t>
+          <t>安馳</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4692,47 +4692,47 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>18.57</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>25.71</t>
+          <t>19.98</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>133.03</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>437483</t>
+          <t>5537</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>商品銷售68.83%、行動通訊23.85%、其他4.99%、數據通信1.77%、國際網路服務0.29%、市內網路服務0.24%、長途網路服務0.03% (2023年)</t>
+          <t>類比IC27.30%、邏輯IC26.06%、混合信號積體電路(IC)23.88%、其他22.76% (2023年)</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>台灣大-通信網路業-上市</t>
+          <t>安馳-電子通路業-上市</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>28.24</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
@@ -4754,17 +4754,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3017</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9004.617</t>
+          <t>5997.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4774,27 +4774,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-2.33</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>20.71</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>559.0</t>
+          <t>87.1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4804,72 +4804,72 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>87</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>7344</t>
+          <t>7092</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-4.02</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-7.84</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -4879,87 +4879,87 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>9624214416.0</t>
+          <t>545755.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>奇鋐</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>53.94</t>
+          <t>33.38</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>26.14</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>125.17</t>
+          <t>74.57</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>213542</t>
+          <t>30596</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>C電子產品100.00% (2023年)</t>
+          <t>動態隨機存取記憶體產品(DRAM47.54%、NandFlash產品43.20%、其他9.26% (2023年)</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>奇鋐-電腦及週邊設備業-上市</t>
+          <t>威剛-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>74.47</t>
+          <t>56.66</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
@@ -4981,17 +4981,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1073.86</t>
+          <t>23595.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5001,17 +5001,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>31.47</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>27.5</t>
+          <t>190.5</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5031,72 +5031,72 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>62</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1566</t>
+          <t>8567</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-1.30</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>-2.77</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>92.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5111,82 +5111,82 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>15010872.0</t>
+          <t>10334985.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>中再保</t>
+          <t>順達</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>10.86</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>38.03</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>22651</t>
+          <t>29139</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>保險費91.49%、兌換損益5.47%、利息收入4.53%、透過損益按公允價值衡量之金3.31%、未滿期準備保費淨變動0.86%、再保佣金0.69%、其他營業收入0.23%、手續費0.08%、投資性不動產0.08% (2024年)</t>
+          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>中再保-金融保險-上市</t>
+          <t>順達-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>70.29</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
@@ -5208,17 +5208,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>3052</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2057.376</t>
+          <t>466.847</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5228,27 +5228,27 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>-1.65</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>16.45</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5258,32 +5258,32 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -5293,37 +5293,37 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -5338,32 +5338,32 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>136129623.0</t>
+          <t>13442964.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>聯邦銀</t>
+          <t>夆典</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -5373,47 +5373,47 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>13.82</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>49.98</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>68851</t>
+          <t>2941</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
+          <t>建材營建69.23%、電機17.85%、其他7.22%、光電產品5.70% (2023年)</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>聯邦銀-金融保險-上市</t>
+          <t>夆典-建材營造-上市</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>建材營造平</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>16.65</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -5435,17 +5435,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>3045</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>667.066</t>
+          <t>5524.671</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5455,27 +5455,27 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>26.02</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>31.65</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5485,72 +5485,72 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>71</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1574</t>
+          <t>8416</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5565,32 +5565,32 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>69146948.0</t>
+          <t>924006711.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>台產</t>
+          <t>台灣大</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5600,47 +5600,47 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>18.57</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>25.93</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>133.64</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>12605</t>
+          <t>441206</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+          <t>商品銷售68.83%、行動通訊23.85%、其他4.99%、數據通信1.77%、國際網路服務0.29%、市內網路服務0.24%、長途網路服務0.03% (2023年)</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>台產-金融保險-上市</t>
+          <t>台灣大-通信網路業-上市</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>28.24</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
@@ -5662,17 +5662,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9834.046</t>
+          <t>9004.617</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5682,27 +5682,27 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>32.58</t>
+          <t>20.71</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>20.55</t>
+          <t>559.0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -5712,32 +5712,32 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>-4.49</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>115</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>4658</t>
+          <t>5552</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-2.99</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -5747,37 +5747,37 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>-4.02</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-7.84</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>104.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -5802,22 +5802,22 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>-6005526.0</t>
+          <t>9624214416.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>奇鋐</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -5827,47 +5827,47 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>53.94</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>13.87</t>
+          <t>25.38</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>122.44</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>114790</t>
+          <t>207341</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
+          <t>C電子產品100.00% (2023年)</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>奇鋐-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>74.47</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
@@ -5889,17 +5889,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2852</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5843.301</t>
+          <t>794.109</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5909,27 +5909,27 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>68.39</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -5939,72 +5939,72 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>214.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -6019,32 +6019,32 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>148655207.0</t>
+          <t>72768763.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>東森</t>
+          <t>第一保</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -6054,47 +6054,47 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>15.24</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>35.58</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>5675</t>
+          <t>8960</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>東森寵物雲59.42%、穀物35.62%、東森新聞雲4.96% (2023年)</t>
+          <t>簽單保費114.65%、再保險保費5.61%、再保佣金3.58%、利息收入2.42%、透過損益按公允價值衡量之金1.39%、透過其他綜合損益按公允價值1.16%、投資性不動產0.75%、手續費0.35%、投資兌換收益0.24%、兌換利益 -非投資0.15%、預期信用減損損失及迴轉利益0.10%、其他業務 -其他0.03% (2024年)</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>東森-其他-上市</t>
+          <t>第一保-金融保險-上市</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>其他平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>14.16</t>
+          <t>28.88</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
@@ -6116,17 +6116,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>32683.49</t>
+          <t>2057.376</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6136,142 +6136,142 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>1532</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>74.8</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>267</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>25603</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>-8.0</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>4707343042.0</t>
+          <t>136129623.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>聯邦銀</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6281,47 +6281,47 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>15.31</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>272384</t>
+          <t>69054</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
+          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>聯邦銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>97.52</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
@@ -6343,17 +6343,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>763.617</t>
+          <t>667.066</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6363,142 +6363,142 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>26.02</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>30.4</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>1604</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>-25694554.0</t>
+          <t>69146948.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>榮運</t>
+          <t>台產</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6508,47 +6508,47 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>34522</t>
+          <t>12460</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
+          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>榮運-航運業-上市</t>
+          <t>台產-金融保險-上市</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -6570,17 +6570,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27417.669</t>
+          <t>9834.046</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6590,142 +6590,142 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>32.58</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>7926</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>227.0</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>11766</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>9811690255.0</t>
+          <t>-6005526.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>台中銀</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -6735,47 +6735,47 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>14.16</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>53.49</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>496877</t>
+          <t>116170</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>台中銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>268.04</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
@@ -6797,17 +6797,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2661.239</t>
+          <t>32683.49</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -6817,17 +6817,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>24.55</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>96.6</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -6847,57 +6847,57 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>181</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>24250</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -6907,12 +6907,12 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -6922,37 +6922,37 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>268171772.0</t>
+          <t>4707343042.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -6962,47 +6962,47 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>19.52</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>187.65</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>45135</t>
+          <t>268194</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
+          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>創見-半導體業-上市</t>
+          <t>陽明-航運業-上市</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>46.12</t>
+          <t>97.52</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
@@ -7024,17 +7024,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>45457.574</t>
+          <t>763.617</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7044,17 +7044,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>30.4</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -7074,72 +7074,72 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>28.53</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>22454</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>198.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -7149,37 +7149,37 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>3185310737.0</t>
+          <t>-25694554.0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>榮運</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -7189,47 +7189,47 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>34415</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>榮運-航運業-上市</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
@@ -7251,17 +7251,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13259.749</t>
+          <t>27417.669</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7271,17 +7271,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>25.12</t>
+          <t>16.42</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>227.0</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7301,112 +7301,112 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>223</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>5598</t>
+          <t>15968</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>1331541535.0</t>
+          <t>9811690255.0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>建準</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -7416,47 +7416,47 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>14.29</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>53.49</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>19.6</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>29258</t>
+          <t>492547</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>DC風扇95.54%、AC風扇4.16%、材料0.30% (2023年)</t>
+          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>建準-電子零組件業-上市</t>
+          <t>長榮-航運業-上市</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>268.04</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
@@ -7478,17 +7478,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>2534</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>505.628</t>
+          <t>468.919</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7498,27 +7498,27 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>32.79</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>26.65</t>
+          <t>25.75</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -7528,72 +7528,72 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>702</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -7603,37 +7603,37 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>28856702.0</t>
+          <t>6214047.0</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>盛餘</t>
+          <t>宏盛</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -7643,47 +7643,47 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>11.59</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>42.97</t>
+          <t>49.98</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>8784</t>
+          <t>12757</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>鍍鋅鋼捲49.76%、烤漆鋼捲47.73%、其他1.48%、客戶委託代工(OEM)1.02%、冷軋鋼捲0.02% (2023年)</t>
+          <t>住宅大樓85.87%、其他14.13% (2023年)</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>盛餘-鋼鐵工業-上市</t>
+          <t>宏盛-建材營造-上市</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>31.79</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
@@ -7705,17 +7705,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1688.616</t>
+          <t>2661.239</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -7725,27 +7725,27 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>17.52</t>
+          <t>24.55</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>19.35</t>
+          <t>96.6</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -7755,72 +7755,72 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2332</t>
+          <t>2278</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>-2.44</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -7830,37 +7830,37 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>67636513.0</t>
+          <t>268171772.0</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>春源</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
@@ -7870,47 +7870,47 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>19.05</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>42.97</t>
+          <t>187.04</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>13730</t>
+          <t>44060</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
+          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>春源-鋼鐵工業-上市</t>
+          <t>創見-半導體業-上市</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>46.12</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
@@ -7932,17 +7932,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1434</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1030.707</t>
+          <t>45457.574</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -7952,192 +7952,192 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-3.67</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>46.6</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>27.64</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>37186</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>-5.06</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
           <t>0.43</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>20.86</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>19.2</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>3185310737.0</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>銘旺科</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>1008</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>24768163.0</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>福懋</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>64.57</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>33272</t>
+          <t>5393</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>聚胺/聚酯布40.62%、油品39.49%、聚胺/聚酯簾布13.66%、特織布3.76%、紗支1.34%、包裝材0.97%、招商0.14%、佣金0.02%、土地開發0.01% (2023年)</t>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>福懋-紡織纖維-上市</t>
+          <t>銘旺科-光電業-上市</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>21.94</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
@@ -8159,17 +8159,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>2421</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>8532.003</t>
+          <t>13259.749</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8179,17 +8179,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>25.12</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>33.1</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -8209,112 +8209,112 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3928</t>
+          <t>3371</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>136.0</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>360057475.0</t>
+          <t>1331541535.0</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>遠東新</t>
+          <t>建準</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
@@ -8324,47 +8324,47 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>13.22</t>
+          <t>14.1</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>19.6</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>64.57</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>184139</t>
+          <t>29258</t>
         </is>
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
+          <t>DC風扇95.54%、AC風扇4.16%、材料0.30% (2023年)</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>遠東新-紡織纖維-上市</t>
+          <t>建準-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>43.67</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
@@ -8386,212 +8386,212 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1336</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1688.616</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-0.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>17.52</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2230</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>323.0</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>25.1</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>1323</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>-0.55</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>34098.0</t>
+          <t>67636513.0</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>台翰</t>
+          <t>春源</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>12.73</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>67.7</t>
+          <t>42.14</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>2129</t>
+          <t>13601</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
+          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>台翰-電子零組件業-上櫃</t>
+          <t>春源-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>24.9</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
@@ -8613,17 +8613,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>1434</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3892.723</t>
+          <t>1030.707</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -8633,27 +8633,27 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>15.13</t>
+          <t>20.86</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>19.2</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -8663,32 +8663,32 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>6861</t>
+          <t>2662</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>-3.14</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -8698,37 +8698,37 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -8753,22 +8753,22 @@
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>325421168.0</t>
+          <t>24768163.0</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>東陽</t>
+          <t>福懋</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
@@ -8778,47 +8778,47 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>44.33</t>
+          <t>63.99</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>82807</t>
+          <t>32177</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
+          <t>聚胺/聚酯布40.62%、油品39.49%、聚胺/聚酯簾布13.66%、特織布3.76%、紗支1.34%、包裝材0.97%、招商0.14%、佣金0.02%、土地開發0.01% (2023年)</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>東陽-汽車工業-上市</t>
+          <t>福懋-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>46.68</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -8840,17 +8840,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>800.152</t>
+          <t>8532.003</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -8860,27 +8860,27 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>13.48</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>20.4</t>
+          <t>33.1</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -8890,37 +8890,37 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>11894</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -8930,32 +8930,32 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -8970,32 +8970,32 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>21560775.0</t>
+          <t>360057475.0</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>泰山</t>
+          <t>遠東新</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>食品工業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
@@ -9005,47 +9005,47 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>14.15</t>
+          <t>18.24</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>19.25</t>
+          <t>63.99</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>10825</t>
+          <t>182533</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
+          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>泰山-食品工業-上市</t>
+          <t>遠東新-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>食品工業平</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>26.34</t>
+          <t>43.67</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
@@ -9067,220 +9067,901 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>1336</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>323.0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>25.1</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>34098.0</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>台翰</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>67.48</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>2114</t>
+        </is>
+      </c>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>台翰-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3892.723</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>13.48</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>4183</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>325421168.0</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>東陽</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>汽車工業</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>11.7</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>19.05</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>44.14</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>83398</t>
+        </is>
+      </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>東陽-汽車工業-上市</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>汽車工業右上</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>46.68</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>800.152</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>13.48</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>-1.16</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>21560775.0</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>泰山</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>食品工業</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>19.12</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>10750</t>
+        </is>
+      </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>泰山-食品工業-上市</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>食品工業平</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>26.34</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>1102</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>0.57</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>5917.155</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>11.58</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>44.0</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>11420</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>13639</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
         <is>
           <t>0.86</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>0.24</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>0.74</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>0.47</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="X42" t="inlineStr">
         <is>
           <t>41.0</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="Y42" t="inlineStr">
         <is>
           <t>22.0</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="Z42" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA39" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
+      <c r="AB42" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
-      <c r="AD39" t="inlineStr">
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AE39" t="inlineStr">
+      <c r="AE42" t="inlineStr">
         <is>
           <t>298017810.0</t>
         </is>
       </c>
-      <c r="AF39" t="inlineStr">
+      <c r="AF42" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AG39" t="inlineStr">
+      <c r="AG42" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AH39" t="inlineStr">
+      <c r="AH42" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
         <is>
           <t>6.01</t>
         </is>
       </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>12.53</t>
-        </is>
-      </c>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>20.35</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>161369</t>
-        </is>
-      </c>
-      <c r="AN39" t="inlineStr">
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>159950</t>
+        </is>
+      </c>
+      <c r="AN42" t="inlineStr">
         <is>
           <t>水泥及熟料100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AO39" t="inlineStr">
+      <c r="AO42" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AP39" t="inlineStr">
+      <c r="AP42" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AQ39" t="inlineStr">
+      <c r="AQ42" t="inlineStr">
         <is>
           <t>51.13</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AR42" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS39" t="inlineStr">
+      <c r="AS42" t="inlineStr">
         <is>
           <t>Y</t>
         </is>

--- a/Result/check3/2025-03-07.xlsx
+++ b/Result/check3/2025-03-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS42"/>
+  <dimension ref="A1:AS37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9907</t>
+          <t>9927</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9954.34</t>
+          <t>201.947</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,27 +688,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>17.8</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,72 +718,72 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3645</t>
+          <t>1680</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>219.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -798,27 +798,27 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>516132642.0</t>
+          <t>11793957.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>統一實</t>
+          <t>泰銘</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -833,37 +833,37 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>12.27</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>18.61</t>
+          <t>12.34</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>35.41</t>
+          <t>35.55</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>28504</t>
+          <t>12984</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>馬口鐵包材產品53.33%、塑膠包材(含充填)產品46.67% (2024年)</t>
+          <t>鉛錠, 鉛合金錠92.78%、黃、紅丹5.49%、其他1.73% (2023年)</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>統一實-其他-上市</t>
+          <t>泰銘-其他-上市</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>13.15</t>
+          <t>39.27</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -895,17 +895,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8436</t>
+          <t>9907</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2563.0</t>
+          <t>9954.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,27 +915,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>19.68</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>153.0</t>
+          <t>17.8</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -945,72 +945,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2210</t>
+          <t>2339</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>266.0</t>
+          <t>219.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1025,82 +1025,82 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1859942.0</t>
+          <t>516132642.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>大江</t>
+          <t>統一實</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>17.58</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.33</t>
+          <t>18.4</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>35.55</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>18271</t>
+          <t>28188</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>保健食品42.10%、機能性飲品39.06%、其他11.45%、美容保養品7.39% (2023年)</t>
+          <t>馬口鐵包材產品53.33%、塑膠包材(含充填)產品46.67% (2024年)</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>大江-生技醫療業-上櫃</t>
+          <t>統一實-其他-上市</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>73.14</t>
+          <t>13.15</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1122,17 +1122,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8176</t>
+          <t>8436</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2972.0</t>
+          <t>2563.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>71.03</t>
+          <t>19.68</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16.3</t>
+          <t>153.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1172,112 +1172,112 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-4.82</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-5.46</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>248.0</t>
+          <t>266.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>85</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>57507.0</t>
+          <t>1859942.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>智捷</t>
+          <t>大江</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1287,47 +1287,47 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>17.58</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>34.56</t>
+          <t>20.2</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>146.62</t>
+          <t>89.54</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>18153</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>商品銷售73.18%、G及IOT15.17%、工業11.65% (2023年)</t>
+          <t>保健食品42.10%、機能性飲品39.06%、其他11.45%、美容保養品7.39% (2023年)</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>智捷-通信網路業-上櫃</t>
+          <t>大江-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>73.14</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1399,17 +1399,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>16.56</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>83</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2652</t>
+          <t>2905</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1419,12 +1419,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.79</t>
+          <t>-6.23</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,22 +1524,22 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>34.12</t>
+          <t>32.52</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>67.48</t>
+          <t>67.24</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>8957</t>
+          <t>8537</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>印刷電路板(PCB)99.08%、其他0.92% (2023年)</t>
+          <t>印刷電路板(PCB)97.26%、樣品及其他2.74% (2024年)</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8072</t>
+          <t>8011</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.33</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1326.965</t>
+          <t>907.969</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>58.61</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>27.8</t>
+          <t>23.2</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1626,72 +1626,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>805</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-3.88</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>224.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1701,37 +1701,37 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>36793998.0</t>
+          <t>18984028.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>陞泰</t>
+          <t>台通</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1741,47 +1741,47 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>35.38</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>128.57</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2264</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>視訊監視系統100.00% (2023年)</t>
+          <t>通訊服務35.06%、工程27.02%、光纜及光纖到家相關配件22.63%、局內外傳輸線材11.37%、其他3.92% (2023年)</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>陞泰-電子通路業-上市</t>
+          <t>台通-通信網路業-上市</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>19.75</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1853,17 +1853,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>2920</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-4.37</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1978,22 +1978,22 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>78.8</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>35.07</t>
+          <t>34.55</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>4387</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>智能自動化設備44.28%、OEM加熱設備26.28%、AOI機械視覺檢測設備24.40%、其他5.04% (2023年)</t>
+          <t>自動化設備58.28%、AOI檢測設備40.57%、OEM加熱設備1.15% (2024年)</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -2080,17 +2080,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>-7.12</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>86</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>975</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-2.56</t>
+          <t>-4.22</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2205,17 +2205,17 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>15.91</t>
+          <t>15.46</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>122.44</t>
+          <t>124.49</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>362388</t>
+          <t>352167</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2307,17 +2307,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>619</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2327,12 +2327,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2432,17 +2432,17 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>33.26</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>39.31</t>
+          <t>38.17</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>3381</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2484,157 +2484,157 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6278</t>
+          <t>5315</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1467.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>22.3</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1707</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-0.85</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1512.476</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>111.5</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1818</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-2.64</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-134679256.0</t>
+          <t>-40184.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>台表科</t>
+          <t>光聯</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2644,42 +2644,42 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>40.52</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>19.3</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>85.9</t>
+          <t>81.56</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>33187</t>
+          <t>2483</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>製造92.34%、其他7.66% (2023年)</t>
+          <t>顯示器模組(LCM)96.52%、液晶顯示器(LCD)3.48% (2023年)</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>台表科-光電業-上市</t>
+          <t>光聯-光電業-上櫃</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>77.24</t>
+          <t>16.11</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6121</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>910.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2731,142 +2731,142 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2459</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>390.0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>1031</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>-14.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>302483.0</t>
+          <t>8783.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>新普</t>
+          <t>光明</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2876,47 +2876,47 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>31.43</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>119.11</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>14.12</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>38.03</t>
+          <t>54.25</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>74636</t>
+          <t>2767</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>鋰電池組99.46%、其他0.54% (2023年)</t>
+          <t>聚酯加工絲94.91%、租賃4.56%、加工業務0.50%、聚酯原絲0.03% (2023年)</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>新普-電腦及週邊設備業-上櫃</t>
+          <t>光明-紡織纖維-上櫃</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>196.88</t>
+          <t>37.33</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
@@ -2938,17 +2938,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5315</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1467.0</t>
+          <t>21887.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2958,27 +2958,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>40.56</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2988,72 +2988,72 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>23.33</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>165</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>25714</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-12.26</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3068,32 +3068,32 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-40184.0</t>
+          <t>459432.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>光聯</t>
+          <t>信立</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3103,47 +3103,47 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>19.05</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>82.69</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>6622</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>顯示器模組(LCM)96.52%、液晶顯示器(LCD)3.48% (2023年)</t>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>光聯-光電業-上櫃</t>
+          <t>信立-塑膠工業-上櫃</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>塑膠工業右上</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>16.11</t>
+          <t>25.03</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -3165,17 +3165,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4420</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>1064.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3185,27 +3185,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>33.05</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3215,22 +3215,22 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>576</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -3240,17 +3240,17 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -3260,27 +3260,27 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3295,32 +3295,32 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>8783.0</t>
+          <t>61178.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>光明</t>
+          <t>健喬</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3330,47 +3330,47 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>33.44</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>20.7</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>54.68</t>
+          <t>89.54</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2601</t>
+          <t>15857</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>聚酯加工絲94.91%、租賃4.56%、加工業務0.50%、聚酯原絲0.03% (2023年)</t>
+          <t>自製產品72.13%、外購25.75%、其他2.12% (2023年)</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>光明-紡織纖維-上櫃</t>
+          <t>健喬-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>37.33</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -3392,17 +3392,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21887.0</t>
+          <t>2149.688</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3412,192 +3412,192 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>40.56</t>
+          <t>21.34</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>210.5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1661</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>29.23</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>34749</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>-4.17</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>87.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>459432.0</t>
+          <t>700283477.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>信立</t>
+          <t>智易</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>54.85</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>19.46</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>128.57</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>7174</t>
+          <t>48368</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
+          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>信立-塑膠工業-上櫃</t>
+          <t>智易-通信網路業-上市</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>塑膠工業右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>72.32</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4114</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1064.0</t>
+          <t>509.886</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3639,192 +3639,192 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10.73</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>24.45</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-1.21</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>31.80</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>-11.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>33.05</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>1512</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>-0.18</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>-0.21</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>61178.0</t>
+          <t>-13523162.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>健喬</t>
+          <t>艾笛森</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>20.88</t>
+          <t>24.85</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>82.93</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>15997</t>
+          <t>3569</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>自製產品72.13%、外購25.75%、其他2.12% (2023年)</t>
+          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>健喬-生技醫療業-上櫃</t>
+          <t>艾笛森-光電業-上市</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
@@ -3846,17 +3846,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2149.688</t>
+          <t>3143.348</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3866,27 +3866,27 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21.34</t>
+          <t>57.16</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>210.5</t>
+          <t>535.0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3896,112 +3896,112 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>35.22</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>22.23</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>700283477.0</t>
+          <t>5065772551.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>智易</t>
+          <t>牧德</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4011,47 +4011,47 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>54.85</t>
+          <t>10.42</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>19.64</t>
+          <t>100.36</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>133.64</t>
+          <t>82.93</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>48808</t>
+          <t>24779</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
+          <t>光學檢測機84.39%、勞務15.61% (2024年)</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>智易-通信網路業-上市</t>
+          <t>牧德-光電業-上市</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>72.32</t>
+          <t>86.18</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
@@ -4073,17 +4073,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>509.886</t>
+          <t>4827.964</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4093,27 +4093,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>23.40</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>24.45</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4123,72 +4123,72 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>23.86</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>31.80</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>205.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>67.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4203,32 +4203,32 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>-13523162.0</t>
+          <t>297423899.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>艾笛森</t>
+          <t>安馳</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4238,47 +4238,47 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>24.8</t>
+          <t>19.45</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>85.9</t>
+          <t>17.21</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>3562</t>
+          <t>5390</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
+          <t>類比IC27.30%、邏輯IC26.06%、混合信號積體電路(IC)23.88%、其他22.76% (2023年)</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>艾笛森-光電業-上市</t>
+          <t>安馳-電子通路業-上市</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -4300,17 +4300,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3563</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3143.348</t>
+          <t>5997.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4320,27 +4320,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>57.16</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>535.0</t>
+          <t>87.1</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4350,72 +4350,72 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>140</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1732</t>
+          <t>7230</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-3.18</t>
+          <t>-4.07</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>35.22</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4425,87 +4425,87 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>5065772551.0</t>
+          <t>545755.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>牧德</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>33.38</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>101.63</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>85.9</t>
+          <t>73.09</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>25092</t>
+          <t>29618</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>光學檢測機84.39%、勞務15.61% (2024年)</t>
+          <t>動態隨機存取記憶體產品(DRAM47.54%、NandFlash產品43.20%、其他9.26% (2023年)</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>牧德-光電業-上市</t>
+          <t>威剛-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>56.66</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4827.964</t>
+          <t>23595.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4547,27 +4547,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>31.47</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>190.5</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4577,72 +4577,72 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>39</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>4330</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-6.26</t>
+          <t>-2.65</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>-1.30</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>-2.77</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>205.0</t>
+          <t>92.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4657,82 +4657,82 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>297423899.0</t>
+          <t>10334985.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>安馳</t>
+          <t>順達</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>19.98</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>37.64</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>5537</t>
+          <t>28757</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>類比IC27.30%、邏輯IC26.06%、混合信號積體電路(IC)23.88%、其他22.76% (2023年)</t>
+          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>安馳-電子通路業-上市</t>
+          <t>順達-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>29.54</t>
+          <t>70.29</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
@@ -4754,17 +4754,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3045</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5997.0</t>
+          <t>5524.671</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4774,27 +4774,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>87.1</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4804,72 +4804,72 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>7092</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -4879,87 +4879,87 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>545755.0</t>
+          <t>924006711.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>台灣大</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>18.57</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>25.93</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>74.57</t>
+          <t>128.57</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>30596</t>
+          <t>441206</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>動態隨機存取記憶體產品(DRAM47.54%、NandFlash產品43.20%、其他9.26% (2023年)</t>
+          <t>商品銷售68.83%、行動通訊23.85%、其他4.99%、數據通信1.77%、國際網路服務0.29%、市內網路服務0.24%、長途網路服務0.03% (2023年)</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>威剛-半導體業-上櫃</t>
+          <t>台灣大-通信網路業-上市</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>56.66</t>
+          <t>28.24</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
@@ -4981,17 +4981,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>2852</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23595.0</t>
+          <t>794.109</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5001,17 +5001,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>31.47</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>190.5</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5031,57 +5031,57 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>8567</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-2.77</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5111,82 +5111,82 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>10334985.0</t>
+          <t>72768763.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>順達</t>
+          <t>第一保</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>10.86</t>
+          <t>10.02</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>38.03</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>29139</t>
+          <t>9050</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
+          <t>簽單保費114.65%、再保險保費5.61%、再保佣金3.58%、利息收入2.42%、透過損益按公允價值衡量之金1.39%、透過其他綜合損益按公允價值1.16%、投資性不動產0.75%、手續費0.35%、投資兌換收益0.24%、兌換利益 -非投資0.15%、預期信用減損損失及迴轉利益0.10%、其他業務 -其他0.03% (2024年)</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>順達-電腦及週邊設備業-上櫃</t>
+          <t>第一保-金融保險-上市</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>28.88</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
@@ -5208,17 +5208,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3052</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>466.847</t>
+          <t>2057.376</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5228,142 +5228,142 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-1.65</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2205</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>12.1</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>1051</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>-2.00</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>13442964.0</t>
+          <t>136129623.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>夆典</t>
+          <t>聯邦銀</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -5373,47 +5373,47 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>12.76</t>
+          <t>13.94</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>49.98</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>2941</t>
+          <t>69459</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>建材營建69.23%、電機17.85%、其他7.22%、光電產品5.70% (2023年)</t>
+          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>夆典-建材營造-上市</t>
+          <t>聯邦銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>16.65</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -5435,17 +5435,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5524.671</t>
+          <t>667.066</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5455,27 +5455,27 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>26.02</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>117.0</t>
+          <t>31.65</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5485,72 +5485,72 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>8416</t>
+          <t>634</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>102.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5565,32 +5565,32 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>924006711.0</t>
+          <t>69146948.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>台灣大</t>
+          <t>台產</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5605,42 +5605,42 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>18.57</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>25.93</t>
+          <t>10.67</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>133.64</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>441206</t>
+          <t>12405</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>商品銷售68.83%、行動通訊23.85%、其他4.99%、數據通信1.77%、國際網路服務0.29%、市內網路服務0.24%、長途網路服務0.03% (2023年)</t>
+          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>台灣大-通信網路業-上市</t>
+          <t>台產-金融保險-上市</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>28.24</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
@@ -5662,17 +5662,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3017</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9004.617</t>
+          <t>9834.046</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5682,27 +5682,27 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-2.33</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>20.71</t>
+          <t>32.58</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>559.0</t>
+          <t>20.55</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -5712,32 +5712,32 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-4.49</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>94</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>5552</t>
+          <t>4795</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-2.99</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -5747,37 +5747,37 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-4.02</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-7.84</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>104.0</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -5792,32 +5792,32 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>9624214416.0</t>
+          <t>-6005526.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>奇鋐</t>
+          <t>台中銀</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -5827,47 +5827,47 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>53.94</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>25.38</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>122.44</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>207341</t>
+          <t>115894</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>C電子產品100.00% (2023年)</t>
+          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>奇鋐-電腦及週邊設備業-上市</t>
+          <t>台中銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>74.47</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
@@ -5889,17 +5889,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>794.109</t>
+          <t>32683.49</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5909,17 +5909,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>28.15</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -5939,32 +5939,32 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>148</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1076</t>
+          <t>20226</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -5974,37 +5974,37 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -6014,37 +6014,37 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>72768763.0</t>
+          <t>4707343042.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>第一保</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -6054,47 +6054,47 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>18.19</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>8960</t>
+          <t>269590</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>簽單保費114.65%、再保險保費5.61%、再保佣金3.58%、利息收入2.42%、透過損益按公允價值衡量之金1.39%、透過其他綜合損益按公允價值1.16%、投資性不動產0.75%、手續費0.35%、投資兌換收益0.24%、兌換利益 -非投資0.15%、預期信用減損損失及迴轉利益0.10%、其他業務 -其他0.03% (2024年)</t>
+          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>第一保-金融保險-上市</t>
+          <t>陽明-航運業-上市</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>28.88</t>
+          <t>97.52</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
@@ -6116,17 +6116,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2057.376</t>
+          <t>763.617</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6136,27 +6136,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>16.45</t>
+          <t>30.4</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6166,17 +6166,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1532</t>
+          <t>2141</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -6186,52 +6186,52 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -6241,37 +6241,37 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>136129623.0</t>
+          <t>-25694554.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>聯邦銀</t>
+          <t>榮運</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6281,47 +6281,47 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>18.19</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>69054</t>
+          <t>34682</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
+          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>聯邦銀-金融保險-上市</t>
+          <t>榮運-航運業-上市</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
@@ -6343,17 +6343,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>667.066</t>
+          <t>27417.669</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6363,27 +6363,27 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>26.02</t>
+          <t>16.42</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>31.65</t>
+          <t>227.0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6393,72 +6393,72 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>143</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>7023</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>-0.13</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -6473,32 +6473,32 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>69146948.0</t>
+          <t>9811690255.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>台產</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6508,47 +6508,47 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>14.25</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>53.49</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>10.72</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>18.19</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>12460</t>
+          <t>493630</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>台產-金融保險-上市</t>
+          <t>長榮-航運業-上市</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>268.04</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -6570,17 +6570,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2534</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9834.046</t>
+          <t>468.919</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6590,27 +6590,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>32.58</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>20.55</t>
+          <t>25.75</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -6620,72 +6620,72 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>7926</t>
+          <t>619</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>104.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -6695,37 +6695,37 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>-6005526.0</t>
+          <t>6214047.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>宏盛</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -6735,47 +6735,47 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>42.78</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>50.07</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>116170</t>
+          <t>12780</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
+          <t>住宅大樓85.87%、其他14.13% (2023年)</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>宏盛-建材營造-上市</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
@@ -6797,17 +6797,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>32683.49</t>
+          <t>2661.239</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -6817,17 +6817,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>24.55</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>74.8</t>
+          <t>96.6</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -6847,57 +6847,57 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>24250</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-1.95</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -6907,12 +6907,12 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -6922,37 +6922,37 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>4707343042.0</t>
+          <t>268171772.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -6962,47 +6962,47 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>15.31</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>18.96</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>182.96</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>268194</t>
+          <t>43845</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
+          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>創見-半導體業-上市</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>97.52</t>
+          <t>46.12</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
@@ -7024,17 +7024,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>763.617</t>
+          <t>45457.574</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7044,17 +7044,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-3.67</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>30.4</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -7074,162 +7074,162 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>29.71</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>61</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>23724</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>3185310737.0</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>銘旺科</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>-0.31</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>-25694554.0</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>榮運</t>
-        </is>
-      </c>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>82.93</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>34415</t>
+          <t>5552</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>榮運-航運業-上市</t>
+          <t>銘旺科-光電業-上市</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
@@ -7251,17 +7251,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2421</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>27417.669</t>
+          <t>13259.749</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7271,17 +7271,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>25.12</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>227.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7301,112 +7301,112 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>32</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>15968</t>
+          <t>3047</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-4.78</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>136.0</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>9811690255.0</t>
+          <t>1331541535.0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>建準</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -7416,47 +7416,47 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>14.29</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>53.49</t>
+          <t>14.1</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>19.14</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>492547</t>
+          <t>28575</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>DC風扇95.54%、AC風扇4.16%、材料0.30% (2023年)</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>建準-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>268.04</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
@@ -7478,17 +7478,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>468.919</t>
+          <t>1688.616</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7498,27 +7498,27 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>17.52</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>25.75</t>
+          <t>19.35</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -7528,72 +7528,72 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>1480</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -7603,37 +7603,37 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>6214047.0</t>
+          <t>67636513.0</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>宏盛</t>
+          <t>春源</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -7643,47 +7643,47 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>49.98</t>
+          <t>42.15</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>12757</t>
+          <t>13730</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>住宅大樓85.87%、其他14.13% (2023年)</t>
+          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>宏盛-建材營造-上市</t>
+          <t>春源-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>30.84</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
@@ -7705,17 +7705,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2661.239</t>
+          <t>8532.003</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -7725,17 +7725,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>24.55</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>96.6</t>
+          <t>33.1</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -7755,72 +7755,72 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2278</t>
+          <t>2970</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-2.44</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -7830,37 +7830,37 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>268171772.0</t>
+          <t>360057475.0</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>遠東新</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
@@ -7870,47 +7870,47 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>19.05</t>
+          <t>18.16</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>187.04</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>44060</t>
+          <t>181730</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
+          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>創見-半導體業-上市</t>
+          <t>遠東新-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>46.12</t>
+          <t>43.67</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
@@ -7932,17 +7932,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>45457.574</t>
+          <t>323.0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -7952,17 +7952,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>25.1</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -7982,77 +7982,77 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>27.64</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>37186</t>
+          <t>935</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-5.06</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>198.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -8062,82 +8062,82 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>3185310737.0</t>
+          <t>34098.0</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>台翰</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.64</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>85.9</t>
+          <t>67.24</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>5393</t>
+          <t>2078</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>台翰-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>24.9</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
@@ -8159,17 +8159,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>1319</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13259.749</t>
+          <t>3892.723</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8179,142 +8179,142 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>25.12</t>
+          <t>15.13</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>7488</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>-4.87</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>3371</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>-0.93</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>136.0</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>1331541535.0</t>
+          <t>325421168.0</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>建準</t>
+          <t>東陽</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
@@ -8324,47 +8324,47 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>19.6</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>43.87</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>29258</t>
+          <t>78666</t>
         </is>
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>DC風扇95.54%、AC風扇4.16%、材料0.30% (2023年)</t>
+          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>建準-電子零組件業-上市</t>
+          <t>東陽-汽車工業-上市</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>46.68</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
@@ -8386,17 +8386,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1688.616</t>
+          <t>800.152</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -8406,27 +8406,27 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>17.52</t>
+          <t>13.48</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>19.35</t>
+          <t>20.4</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -8436,32 +8436,32 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2230</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -8476,32 +8476,32 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -8516,32 +8516,32 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>67636513.0</t>
+          <t>21560775.0</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>春源</t>
+          <t>泰山</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>食品工業</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
@@ -8551,47 +8551,47 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>13.92</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>42.14</t>
+          <t>19.11</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>13601</t>
+          <t>10650</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
+          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>春源-鋼鐵工業-上市</t>
+          <t>泰山-食品工業-上市</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>26.34</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
@@ -8613,17 +8613,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1434</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1030.707</t>
+          <t>5917.155</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -8633,27 +8633,27 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>20.86</t>
+          <t>11.58</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>19.2</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -8663,72 +8663,72 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>46</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2662</t>
+          <t>12453</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-3.14</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -8743,32 +8743,32 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>24768163.0</t>
+          <t>298017810.0</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>福懋</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
@@ -8778,47 +8778,47 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>12.6</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>63.99</t>
+          <t>19.86</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>32177</t>
+          <t>162255</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>聚胺/聚酯布40.62%、油品39.49%、聚胺/聚酯簾布13.66%、特織布3.76%、紗支1.34%、包裝材0.97%、招商0.14%、佣金0.02%、土地開發0.01% (2023年)</t>
+          <t>水泥及熟料100.00% (2023年)</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>福懋-紡織纖維-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>21.94</t>
+          <t>51.13</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -8827,1141 +8827,6 @@
         </is>
       </c>
       <c r="AS37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1402</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>8532.003</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>33.1</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>11894</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>-0.73</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-      <c r="AD38" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="AE38" t="inlineStr">
-        <is>
-          <t>360057475.0</t>
-        </is>
-      </c>
-      <c r="AF38" t="inlineStr">
-        <is>
-          <t>遠東新</t>
-        </is>
-      </c>
-      <c r="AG38" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>13.22</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>18.24</t>
-        </is>
-      </c>
-      <c r="AL38" t="inlineStr">
-        <is>
-          <t>63.99</t>
-        </is>
-      </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>182533</t>
-        </is>
-      </c>
-      <c r="AN38" t="inlineStr">
-        <is>
-          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>遠東新-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AP38" t="inlineStr">
-        <is>
-          <t>紡織纖維右上</t>
-        </is>
-      </c>
-      <c r="AQ38" t="inlineStr">
-        <is>
-          <t>43.67</t>
-        </is>
-      </c>
-      <c r="AR38" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS38" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1336</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>323.0</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>25.1</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>1076</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AE39" t="inlineStr">
-        <is>
-          <t>34098.0</t>
-        </is>
-      </c>
-      <c r="AF39" t="inlineStr">
-        <is>
-          <t>台翰</t>
-        </is>
-      </c>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>12.86</t>
-        </is>
-      </c>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>67.48</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>2114</t>
-        </is>
-      </c>
-      <c r="AN39" t="inlineStr">
-        <is>
-          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>台翰-電子零組件業-上櫃</t>
-        </is>
-      </c>
-      <c r="AP39" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AQ39" t="inlineStr">
-        <is>
-          <t>24.9</t>
-        </is>
-      </c>
-      <c r="AR39" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS39" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1319</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>3892.723</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>15.13</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>122.0</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>13.48</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>4183</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AE40" t="inlineStr">
-        <is>
-          <t>325421168.0</t>
-        </is>
-      </c>
-      <c r="AF40" t="inlineStr">
-        <is>
-          <t>東陽</t>
-        </is>
-      </c>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>11.7</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>19.05</t>
-        </is>
-      </c>
-      <c r="AL40" t="inlineStr">
-        <is>
-          <t>44.14</t>
-        </is>
-      </c>
-      <c r="AM40" t="inlineStr">
-        <is>
-          <t>83398</t>
-        </is>
-      </c>
-      <c r="AN40" t="inlineStr">
-        <is>
-          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>東陽-汽車工業-上市</t>
-        </is>
-      </c>
-      <c r="AP40" t="inlineStr">
-        <is>
-          <t>汽車工業右上</t>
-        </is>
-      </c>
-      <c r="AQ40" t="inlineStr">
-        <is>
-          <t>46.68</t>
-        </is>
-      </c>
-      <c r="AR40" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS40" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1218</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>800.152</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>13.48</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>20.4</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>865</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>-1.16</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AE41" t="inlineStr">
-        <is>
-          <t>21560775.0</t>
-        </is>
-      </c>
-      <c r="AF41" t="inlineStr">
-        <is>
-          <t>泰山</t>
-        </is>
-      </c>
-      <c r="AG41" t="inlineStr">
-        <is>
-          <t>食品工業</t>
-        </is>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI41" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>14.05</t>
-        </is>
-      </c>
-      <c r="AL41" t="inlineStr">
-        <is>
-          <t>19.12</t>
-        </is>
-      </c>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>10750</t>
-        </is>
-      </c>
-      <c r="AN41" t="inlineStr">
-        <is>
-          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>泰山-食品工業-上市</t>
-        </is>
-      </c>
-      <c r="AP41" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="AQ41" t="inlineStr">
-        <is>
-          <t>26.34</t>
-        </is>
-      </c>
-      <c r="AR41" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS41" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>5917.155</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>11.58</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>559</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>13639</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>-0.44</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>41.0</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>298017810.0</t>
-        </is>
-      </c>
-      <c r="AF42" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AG42" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH42" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI42" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>12.42</t>
-        </is>
-      </c>
-      <c r="AL42" t="inlineStr">
-        <is>
-          <t>20.29</t>
-        </is>
-      </c>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>159950</t>
-        </is>
-      </c>
-      <c r="AN42" t="inlineStr">
-        <is>
-          <t>水泥及熟料100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AP42" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="AQ42" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="AR42" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS42" t="inlineStr">
         <is>
           <t>Y</t>
         </is>

--- a/Result/check3/2025-03-07.xlsx
+++ b/Result/check3/2025-03-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS37"/>
+  <dimension ref="A1:AS33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,17 +718,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>889</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>12.34</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>35.55</t>
+          <t>34.36</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>12984</t>
+          <t>12833</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -895,17 +895,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9907</t>
+          <t>8155</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>-2.19</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9954.34</t>
+          <t>2064.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,27 +915,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>16.74</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>17.8</t>
+          <t>133.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -945,77 +945,77 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>13.87</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>71</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2339</t>
+          <t>2778</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-4.84</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>219.0</t>
+          <t>183.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1025,82 +1025,82 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>516132642.0</t>
+          <t>727242.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>統一實</t>
+          <t>博智</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>18.4</t>
+          <t>33.05</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>35.55</t>
+          <t>66.15</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>28188</t>
+          <t>8677</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>馬口鐵包材產品53.33%、塑膠包材(含充填)產品46.67% (2024年)</t>
+          <t>印刷電路板(PCB)97.26%、樣品及其他2.74% (2024年)</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>統一實-其他-上市</t>
+          <t>博智-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>13.15</t>
+          <t>43.21</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1122,17 +1122,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8436</t>
+          <t>8011</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2563.0</t>
+          <t>907.969</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,27 +1142,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>19.68</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>153.0</t>
+          <t>23.2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1172,72 +1172,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1085</t>
+          <t>838</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-3.77</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>266.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1252,82 +1252,82 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1859942.0</t>
+          <t>18984028.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>大江</t>
+          <t>台通</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>17.58</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>20.2</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>129.75</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>18153</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>保健食品42.10%、機能性飲品39.06%、其他11.45%、美容保養品7.39% (2023年)</t>
+          <t>通訊服務35.06%、工程27.02%、光纜及光纖到家相關配件22.63%、局內外傳輸線材11.37%、其他3.92% (2023年)</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>大江-生技醫療業-上櫃</t>
+          <t>台通-通信網路業-上市</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>73.14</t>
+          <t>19.75</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -1349,17 +1349,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8155</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.19</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2064.0</t>
+          <t>1870.321</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,27 +1369,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>16.74</t>
+          <t>34.14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>133.5</t>
+          <t>2030.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1399,77 +1399,77 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>-6.01</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2905</t>
+          <t>1098</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-6.23</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>-77.58</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>-88.47</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>183.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1479,82 +1479,82 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>727242.0</t>
+          <t>9005137350.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>博智</t>
+          <t>緯穎</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>622.11</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>32.52</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>67.24</t>
+          <t>123.83</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>8537</t>
+          <t>355884</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>印刷電路板(PCB)97.26%、樣品及其他2.74% (2024年)</t>
+          <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>博智-電子零組件業-上櫃</t>
+          <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>43.21</t>
+          <t>474.62</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8011</t>
+          <t>6606</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-2.33</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>907.969</t>
+          <t>88.008</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>23.2</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1626,72 +1626,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>659</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1706,32 +1706,32 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>18984028.0</t>
+          <t>2077307.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>台通</t>
+          <t>建德工業</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1741,47 +1741,47 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>9.84</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>33.15</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>128.57</t>
+          <t>38.12</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>4048</t>
+          <t>3364</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>通訊服務35.06%、工程27.02%、光纜及光纖到家相關配件22.63%、局內外傳輸線材11.37%、其他3.92% (2023年)</t>
+          <t>磨床及加工中心92.78%、零組件及其他7.22% (2023年)</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>台通-通信網路業-上市</t>
+          <t>建德工業-電機機械-上市</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>19.75</t>
+          <t>16.64</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1803,17 +1803,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6877</t>
+          <t>5315</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2959.0</t>
+          <t>1467.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,142 +1823,142 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>13.15</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>22.3</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1629</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-1.49</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>99.6</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-1.12</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2920</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>-4.37</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>59.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>54.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>523804.0</t>
+          <t>-40184.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>鏵友益</t>
+          <t>光聯</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1968,47 +1968,47 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>78.8</t>
+          <t>19.38</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>34.55</t>
+          <t>81.74</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>4196</t>
+          <t>2494</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>自動化設備58.28%、AOI檢測設備40.57%、OEM加熱設備1.15% (2024年)</t>
+          <t>顯示器模組(LCM)96.52%、液晶顯示器(LCD)3.48% (2023年)</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>鏵友益-其他電子業-上櫃</t>
+          <t>光聯-光電業-上櫃</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>20.64</t>
+          <t>16.11</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -2030,17 +2030,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1870.321</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,192 +2050,192 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>34.14</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1435</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-4.48</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2030.0</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-7.12</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>975</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-4.22</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>-77.58</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-88.47</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>9005137350.0</t>
+          <t>8783.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>緯穎</t>
+          <t>光明</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>622.11</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>15.46</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>124.49</t>
+          <t>55.01</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>352167</t>
+          <t>2706</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>資料中心產品100.00% (2024年)</t>
+          <t>聚酯加工絲94.91%、租賃4.56%、加工業務0.50%、聚酯原絲0.03% (2023年)</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>緯穎-電腦及週邊設備業-上市</t>
+          <t>光明-紡織纖維-上櫃</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>474.62</t>
+          <t>37.33</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
@@ -2257,17 +2257,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6606</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.008</t>
+          <t>21887.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,17 +2277,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>40.56</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2307,72 +2307,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>30.3</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>111</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>39985</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2387,82 +2387,82 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2077307.0</t>
+          <t>459432.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>建德工業</t>
+          <t>信立</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>33.26</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>38.17</t>
+          <t>11.22</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>3375</t>
+          <t>7285</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>磨床及加工中心92.78%、零組件及其他7.22% (2023年)</t>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>建德工業-電機機械-上市</t>
+          <t>信立-塑膠工業-上櫃</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>塑膠工業右上</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>16.64</t>
+          <t>25.03</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -2484,17 +2484,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5315</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1467.0</t>
+          <t>1064.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,27 +2504,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>33.05</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2534,72 +2534,72 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2614,32 +2614,32 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>-40184.0</t>
+          <t>61178.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>光聯</t>
+          <t>健喬</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2649,47 +2649,47 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>19.3</t>
+          <t>20.67</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>81.56</t>
+          <t>89.43</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>15834</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>顯示器模組(LCM)96.52%、液晶顯示器(LCD)3.48% (2023年)</t>
+          <t>自製產品72.13%、外購25.75%、其他2.12% (2023年)</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>光聯-光電業-上櫃</t>
+          <t>健喬-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>16.11</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4420</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>2149.688</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2731,27 +2731,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>21.34</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>210.5</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2761,72 +2761,72 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>7.47</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2459</t>
+          <t>2087</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2841,82 +2841,82 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>8783.0</t>
+          <t>700283477.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>光明</t>
+          <t>智易</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>31.43</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>54.85</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>20.17</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>54.25</t>
+          <t>129.75</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2767</t>
+          <t>50131</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>聚酯加工絲94.91%、租賃4.56%、加工業務0.50%、聚酯原絲0.03% (2023年)</t>
+          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>光明-紡織纖維-上櫃</t>
+          <t>智易-通信網路業-上市</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>37.33</t>
+          <t>72.32</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
@@ -2938,17 +2938,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21887.0</t>
+          <t>509.886</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2958,192 +2958,192 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>40.56</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>24.45</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>8567</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>31.80</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>-11.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>23.33</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>25714</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-12.26</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>87.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>459432.0</t>
+          <t>-13523162.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>信立</t>
+          <t>艾笛森</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>82.87</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>6622</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
+          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>信立-塑膠工業-上櫃</t>
+          <t>艾笛森-光電業-上市</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>塑膠工業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -3165,17 +3165,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4114</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1064.0</t>
+          <t>4827.964</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3185,192 +3185,192 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10.73</t>
+          <t>23.40</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>61.6</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>33.05</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>-1.02</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>-0.18</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>-0.21</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>61178.0</t>
+          <t>297423899.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>健喬</t>
+          <t>安馳</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>19.45</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>15857</t>
+          <t>5390</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>自製產品72.13%、外購25.75%、其他2.12% (2023年)</t>
+          <t>類比IC27.30%、邏輯IC26.06%、混合信號積體電路(IC)23.88%、其他22.76% (2023年)</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>健喬-生技醫療業-上櫃</t>
+          <t>安馳-電子通路業-上市</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -3392,17 +3392,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2149.688</t>
+          <t>23595.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3412,27 +3412,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21.34</t>
+          <t>31.47</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>210.5</t>
+          <t>190.5</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3442,57 +3442,57 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>62</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1661</t>
+          <t>6471</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>-1.30</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>-2.77</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -3502,102 +3502,102 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>92.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
+          <t>-14.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>700283477.0</t>
+          <t>10334985.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>智易</t>
+          <t>順達</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>54.85</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>19.46</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>128.57</t>
+          <t>37.36</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>48368</t>
+          <t>29520</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
+          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>智易-通信網路業-上市</t>
+          <t>順達-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>72.32</t>
+          <t>70.29</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>3045</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>509.886</t>
+          <t>5524.671</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3639,27 +3639,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>24.45</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3669,72 +3669,72 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-1.71</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>-1.21</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>31.80</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3749,32 +3749,32 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>-13523162.0</t>
+          <t>924006711.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>艾笛森</t>
+          <t>台灣大</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3784,47 +3784,47 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>18.57</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>24.85</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>129.75</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>3569</t>
+          <t>435622</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
+          <t>商品銷售68.83%、行動通訊23.85%、其他4.99%、數據通信1.77%、國際網路服務0.29%、市內網路服務0.24%、長途網路服務0.03% (2023年)</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>艾笛森-光電業-上市</t>
+          <t>台灣大-通信網路業-上市</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>28.24</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
@@ -3846,17 +3846,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3563</t>
+          <t>3026</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3143.348</t>
+          <t>525.048</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3866,27 +3866,27 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>57.16</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>535.0</t>
+          <t>91.4</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3896,77 +3896,77 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>611</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-2.09</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>35.22</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -3976,32 +3976,32 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>5065772551.0</t>
+          <t>-4522141.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>牧德</t>
+          <t>禾伸堂</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4011,47 +4011,47 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>19.26</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>100.36</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>24779</t>
+          <t>15096</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>光學檢測機84.39%、勞務15.61% (2024年)</t>
+          <t>被動元件42.33%、主動元件26.27%、系統模組18.76%、其他電子零組件12.64% (2023年)</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>牧德-光電業-上市</t>
+          <t>禾伸堂-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>60.18</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
@@ -4073,17 +4073,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>2852</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4827.964</t>
+          <t>794.109</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4093,27 +4093,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4123,37 +4123,37 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>23.86</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -4163,32 +4163,32 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>205.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4203,32 +4203,32 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>297423899.0</t>
+          <t>72768763.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>安馳</t>
+          <t>第一保</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4238,47 +4238,47 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>19.45</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>17.21</t>
+          <t>13.37</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>5390</t>
+          <t>9035</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>類比IC27.30%、邏輯IC26.06%、混合信號積體電路(IC)23.88%、其他22.76% (2023年)</t>
+          <t>簽單保費114.65%、再保險保費5.61%、再保佣金3.58%、利息收入2.42%、透過損益按公允價值衡量之金1.39%、透過其他綜合損益按公允價值1.16%、投資性不動產0.75%、手續費0.35%、投資兌換收益0.24%、兌換利益 -非投資0.15%、預期信用減損損失及迴轉利益0.10%、其他業務 -其他0.03% (2024年)</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>安馳-電子通路業-上市</t>
+          <t>第一保-金融保險-上市</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>29.54</t>
+          <t>28.88</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -4300,17 +4300,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5997.0</t>
+          <t>2057.376</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4320,27 +4320,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>87.1</t>
+          <t>16.45</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4350,72 +4350,72 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>7230</t>
+          <t>1528</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-4.07</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>101.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4425,87 +4425,87 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>545755.0</t>
+          <t>136129623.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>聯邦銀</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>14.02</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>73.09</t>
+          <t>13.37</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>29618</t>
+          <t>69864</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>動態隨機存取記憶體產品(DRAM47.54%、NandFlash產品43.20%、其他9.26% (2023年)</t>
+          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>威剛-半導體業-上櫃</t>
+          <t>聯邦銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>56.66</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>23595.0</t>
+          <t>667.066</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4547,192 +4547,192 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>31.47</t>
+          <t>26.02</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>190.5</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>-1.06</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>4330</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>-2.65</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>-1.30</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>-2.77</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>92.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>-14.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>10334985.0</t>
+          <t>69146948.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>順達</t>
+          <t>台產</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>10.72</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>37.64</t>
+          <t>13.37</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>28757</t>
+          <t>12387</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
+          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>順達-電腦及週邊設備業-上櫃</t>
+          <t>台產-金融保險-上市</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
@@ -4754,107 +4754,107 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9834.046</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>32.58</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>8402</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
           <t>0.43</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5524.671</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-0.43</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>117.0</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2826</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -4864,12 +4864,12 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>104.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -4884,32 +4884,32 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>924006711.0</t>
+          <t>-6005526.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>台灣大</t>
+          <t>台中銀</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -4919,47 +4919,47 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>18.57</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>25.93</t>
+          <t>14.17</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>128.57</t>
+          <t>13.37</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>441206</t>
+          <t>117274</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>商品銷售68.83%、行動通訊23.85%、其他4.99%、數據通信1.77%、國際網路服務0.29%、市內網路服務0.24%、長途網路服務0.03% (2023年)</t>
+          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>台灣大-通信網路業-上市</t>
+          <t>台中銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>28.24</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
@@ -4981,17 +4981,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>794.109</t>
+          <t>227.325</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5001,142 +5001,142 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>-12.0</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>28.15</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>2503</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>43.0</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>72768763.0</t>
+          <t>165406333.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>第一保</t>
+          <t>晶華</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>觀光事業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -5146,47 +5146,47 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>20.48</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>122.86</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>9050</t>
+          <t>27583</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>簽單保費114.65%、再保險保費5.61%、再保佣金3.58%、利息收入2.42%、透過損益按公允價值衡量之金1.39%、透過其他綜合損益按公允價值1.16%、投資性不動產0.75%、手續費0.35%、投資兌換收益0.24%、兌換利益 -非投資0.15%、預期信用減損損失及迴轉利益0.10%、其他業務 -其他0.03% (2024年)</t>
+          <t>餐旅服務86.64%、租賃10.95%、技術服務2.40% (2024年)</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>第一保-金融保險-上市</t>
+          <t>晶華-觀光事業-上市</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>28.88</t>
+          <t>36.11</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
@@ -5208,17 +5208,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2057.376</t>
+          <t>32683.49</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5228,27 +5228,27 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>16.45</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5258,72 +5258,72 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>122</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2205</t>
+          <t>20214</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -5333,37 +5333,37 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>136129623.0</t>
+          <t>4707343042.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>聯邦銀</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -5373,47 +5373,47 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>13.94</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>18.12</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>69459</t>
+          <t>272035</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
+          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>聯邦銀-金融保險-上市</t>
+          <t>陽明-航運業-上市</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>97.52</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -5435,17 +5435,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>667.066</t>
+          <t>763.617</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5455,27 +5455,27 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>26.02</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>31.65</t>
+          <t>30.4</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5485,72 +5485,72 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>1516</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5560,37 +5560,37 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>69146948.0</t>
+          <t>-25694554.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>台產</t>
+          <t>榮運</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5600,47 +5600,47 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>10.67</t>
+          <t>12.42</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>18.12</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>12405</t>
+          <t>34469</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>台產-金融保險-上市</t>
+          <t>榮運-航運業-上市</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -5662,17 +5662,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9834.046</t>
+          <t>27417.669</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5682,27 +5682,27 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>32.58</t>
+          <t>16.42</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>20.55</t>
+          <t>227.0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -5712,72 +5712,72 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>99</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>4795</t>
+          <t>8452</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>104.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -5792,32 +5792,32 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>-6005526.0</t>
+          <t>9811690255.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -5827,47 +5827,47 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>14.16</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>53.49</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>18.12</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>115894</t>
+          <t>496877</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
+          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>長榮-航運業-上市</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>268.04</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
@@ -5889,17 +5889,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2534</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32683.49</t>
+          <t>468.919</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5909,27 +5909,27 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>74.8</t>
+          <t>25.75</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -5939,32 +5939,32 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>20226</t>
+          <t>539</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -5974,22 +5974,22 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -5999,12 +5999,12 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -6019,32 +6019,32 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>4707343042.0</t>
+          <t>6214047.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>宏盛</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -6054,47 +6054,47 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>15.31</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>18.19</t>
+          <t>50.28</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>269590</t>
+          <t>12757</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
+          <t>住宅大樓85.87%、其他14.13% (2023年)</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>宏盛-建材營造-上市</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>97.52</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
@@ -6116,17 +6116,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>763.617</t>
+          <t>2661.239</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6136,87 +6136,87 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>96.6</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>0.50</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>30.4</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2141</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -6226,12 +6226,12 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -6241,37 +6241,37 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>-25694554.0</t>
+          <t>268171772.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>榮運</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6281,47 +6281,47 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>19.24</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>18.19</t>
+          <t>183.97</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>34682</t>
+          <t>44490</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
+          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>榮運-航運業-上市</t>
+          <t>創見-半導體業-上市</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>46.12</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
@@ -6343,17 +6343,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27417.669</t>
+          <t>45457.574</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6363,17 +6363,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>-3.67</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>227.0</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6393,72 +6393,72 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>26.84</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>41</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>7023</t>
+          <t>12350</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>198.0</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>73.0</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -6473,32 +6473,32 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>9811690255.0</t>
+          <t>3185310737.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>銘旺科</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6508,47 +6508,47 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>14.25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>53.49</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>18.19</t>
+          <t>82.87</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>493630</t>
+          <t>5335</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>銘旺科-光電業-上市</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>268.04</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -6570,17 +6570,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>2421</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>468.919</t>
+          <t>13259.749</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6590,27 +6590,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>25.12</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>25.75</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -6620,87 +6620,87 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-2.41</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>136.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -6710,22 +6710,22 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>6214047.0</t>
+          <t>1331541535.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>宏盛</t>
+          <t>建準</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -6735,47 +6735,47 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>14.1</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>42.78</t>
+          <t>18.96</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>50.07</t>
+          <t>32.01</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>12780</t>
+          <t>28301</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>住宅大樓85.87%、其他14.13% (2023年)</t>
+          <t>DC風扇95.54%、AC風扇4.16%、材料0.30% (2023年)</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>宏盛-建材營造-上市</t>
+          <t>建準-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>30.84</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
@@ -6797,17 +6797,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2661.239</t>
+          <t>1688.616</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -6817,142 +6817,142 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>24.55</t>
+          <t>17.52</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>-2.88</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>96.6</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>1155</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>78.0</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>268171772.0</t>
+          <t>67636513.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>春源</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -6962,47 +6962,47 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>18.96</t>
+          <t>12.64</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>182.96</t>
+          <t>41.25</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>43845</t>
+          <t>13504</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
+          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>創見-半導體業-上市</t>
+          <t>春源-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>46.12</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
@@ -7024,17 +7024,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>45457.574</t>
+          <t>8532.003</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7044,17 +7044,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>33.1</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -7074,72 +7074,72 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>29.71</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>23724</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>198.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -7154,32 +7154,32 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>3185310737.0</t>
+          <t>360057475.0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>遠東新</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -7189,47 +7189,47 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>62.98</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>5552</t>
+          <t>179857</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>遠東新-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>43.67</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
@@ -7251,17 +7251,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>1319</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13259.749</t>
+          <t>3892.723</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7271,142 +7271,142 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>25.12</t>
+          <t>15.13</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>3267</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>3047</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>-4.78</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>136.0</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>1331541535.0</t>
+          <t>325421168.0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>建準</t>
+          <t>東陽</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -7416,47 +7416,47 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>19.14</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>43.77</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>28575</t>
+          <t>80737</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>DC風扇95.54%、AC風扇4.16%、材料0.30% (2023年)</t>
+          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>建準-電子零組件業-上市</t>
+          <t>東陽-汽車工業-上市</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>46.68</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
@@ -7478,17 +7478,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1688.616</t>
+          <t>800.152</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7498,27 +7498,27 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>17.52</t>
+          <t>13.48</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>19.35</t>
+          <t>20.4</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -7528,32 +7528,32 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>857</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -7568,32 +7568,32 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -7608,32 +7608,32 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>67636513.0</t>
+          <t>21560775.0</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>春源</t>
+          <t>泰山</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>食品工業</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -7643,47 +7643,47 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>13.76</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>42.15</t>
+          <t>19.12</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>13730</t>
+          <t>10525</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
+          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>春源-鋼鐵工業-上市</t>
+          <t>泰山-食品工業-上市</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>26.34</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
@@ -7705,17 +7705,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8532.003</t>
+          <t>5917.155</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -7725,114 +7725,114 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>11.58</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>12668</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>33.1</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>2970</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>-0.74</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB33" t="inlineStr">
         <is>
           <t>2025-02-17</t>
@@ -7840,27 +7840,27 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>360057475.0</t>
+          <t>298017810.0</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>遠東新</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
@@ -7870,47 +7870,47 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>13.22</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>18.16</t>
+          <t>12.63</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>19.75</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>181730</t>
+          <t>162610</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
+          <t>水泥及熟料100.00% (2023年)</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>遠東新-紡織纖維-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>43.67</t>
+          <t>51.13</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
@@ -7919,914 +7919,6 @@
         </is>
       </c>
       <c r="AS33" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1336</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>323.0</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>25.1</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>935</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>-1.31</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>34098.0</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>台翰</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>12.64</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>67.24</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>2078</t>
-        </is>
-      </c>
-      <c r="AN34" t="inlineStr">
-        <is>
-          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>台翰-電子零組件業-上櫃</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t>24.9</t>
-        </is>
-      </c>
-      <c r="AR34" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1319</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3892.723</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>15.13</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>122.0</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>7488</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>-4.87</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>325421168.0</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>東陽</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>11.7</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>43.87</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>78666</t>
-        </is>
-      </c>
-      <c r="AN35" t="inlineStr">
-        <is>
-          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>東陽-汽車工業-上市</t>
-        </is>
-      </c>
-      <c r="AP35" t="inlineStr">
-        <is>
-          <t>汽車工業右上</t>
-        </is>
-      </c>
-      <c r="AQ35" t="inlineStr">
-        <is>
-          <t>46.68</t>
-        </is>
-      </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS35" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1218</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>800.152</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>13.48</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>20.4</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>1041</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>-0.94</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>21560775.0</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>泰山</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>食品工業</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>13.92</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>19.11</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>10650</t>
-        </is>
-      </c>
-      <c r="AN36" t="inlineStr">
-        <is>
-          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>泰山-食品工業-上市</t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr">
-        <is>
-          <t>食品工業右下</t>
-        </is>
-      </c>
-      <c r="AQ36" t="inlineStr">
-        <is>
-          <t>26.34</t>
-        </is>
-      </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5917.155</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>11.58</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>12453</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>41.0</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>298017810.0</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>12.6</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>19.86</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>162255</t>
-        </is>
-      </c>
-      <c r="AN37" t="inlineStr">
-        <is>
-          <t>水泥及熟料100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="AR37" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS37" t="inlineStr">
         <is>
           <t>Y</t>
         </is>

--- a/Result/check3/2025-03-07.xlsx
+++ b/Result/check3/2025-03-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS33"/>
+  <dimension ref="A1:AU27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,40 +621,50 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>營業毛利率</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>營業利益率</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
@@ -668,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9927</t>
+          <t>8155</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-2.19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>201.947</t>
+          <t>2064.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,27 +698,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>16.74</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>133.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,77 +728,77 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>2796</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-6.37</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>183.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -798,90 +808,100 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>11793957.0</t>
+          <t>727242.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>泰銘</t>
+          <t>博智</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>12.27</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>31.77</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>34.36</t>
+          <t>15.82%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>12833</t>
+          <t>7.06%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>鉛錠, 鉛合金錠92.78%、黃、紅丹5.49%、其他1.73% (2023年)</t>
+          <t>66.3</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>泰銘-其他-上市</t>
+          <t>8341</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>印刷電路板(PCB)97.26%、樣品及其他2.74% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>39.27</t>
+          <t>博智-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>43.21</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -895,17 +915,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8155</t>
+          <t>8011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.19</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2064.0</t>
+          <t>907.969</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,27 +935,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>16.74</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>133.5</t>
+          <t>23.2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -945,77 +965,77 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>13.87</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2778</t>
+          <t>539</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-4.84</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>183.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1025,92 +1045,102 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>727242.0</t>
+          <t>18984028.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>博智</t>
+          <t>台通</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>33.05</t>
+          <t>9.88</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>66.15</t>
+          <t>22.88%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>8677</t>
+          <t>7.18%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>印刷電路板(PCB)97.26%、樣品及其他2.74% (2024年)</t>
+          <t>128.54</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>博智-電子零組件業-上櫃</t>
+          <t>4015</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>商品銷售36.56%、工程32.31%、電信服務30.88%、其他0.24% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>43.21</t>
+          <t>台通-通信網路業-上市</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
+          <t>通信網路業右上</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -1122,17 +1152,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8011</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.33</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>907.969</t>
+          <t>1870.321</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,17 +1172,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>34.14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1162,7 +1192,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>23.2</t>
+          <t>2030.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1172,57 +1202,57 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>-5.73</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>652</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-3.77</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-77.58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-88.47</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1232,12 +1262,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1252,32 +1282,32 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>18984028.0</t>
+          <t>9005137350.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>台通</t>
+          <t>緯穎</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1287,57 +1317,67 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>622.11</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>15.67</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>129.75</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>3966</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>通訊服務35.06%、工程27.02%、光纜及光纖到家相關配件22.63%、局內外傳輸線材11.37%、其他3.92% (2023年)</t>
+          <t>124.87</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>台通-通信網路業-上市</t>
+          <t>356813</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>19.75</t>
+          <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>474.62</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>N</t>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1349,17 +1389,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>6121</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1870.321</t>
+          <t>910.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,17 +1409,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>34.14</t>
+          <t>10.61</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1389,7 +1429,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2030.0</t>
+          <t>390.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1399,32 +1439,32 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-6.01</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>819</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-1.64</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1434,37 +1474,37 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-77.58</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-88.47</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1479,27 +1519,27 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>9005137350.0</t>
+          <t>302483.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>緯穎</t>
+          <t>新普</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1509,60 +1549,70 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>622.11</t>
+          <t>119.11</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>123.83</t>
+          <t>14.01%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>355884</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>資料中心產品100.00% (2024年)</t>
+          <t>37.74</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>緯穎-電腦及週邊設備業-上市</t>
+          <t>72601</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>鋰電池組99.46%、其他0.54% (2023年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>474.62</t>
+          <t>新普-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
+          <t>電腦及週邊設備業右上</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>196.88</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1576,17 +1626,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6606</t>
+          <t>5315</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.008</t>
+          <t>1467.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,200 +1646,210 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>22.3</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>28.25</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>659</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-0.49</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-12.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2077307.0</t>
+          <t>-40184.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>建德工業</t>
+          <t>光聯</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>33.15</t>
+          <t>19.55</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>38.12</t>
+          <t>14.01%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>3364</t>
+          <t>6.08%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>磨床及加工中心92.78%、零組件及其他7.22% (2023年)</t>
+          <t>81.74</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>建德工業-電機機械-上市</t>
+          <t>2515</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>顯示器模組(LCM)96.52%、液晶顯示器(LCD)3.48% (2023年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>16.64</t>
+          <t>光聯-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1803,17 +1863,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5315</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1467.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1883,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1853,72 +1913,72 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>13.24</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>40</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1629</t>
+          <t>1373</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1933,32 +1993,32 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-40184.0</t>
+          <t>8783.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>光聯</t>
+          <t>光明</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1968,55 +2028,65 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>31.62</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>19.38</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>81.74</t>
+          <t>1.69%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2494</t>
+          <t>1.95%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>顯示器模組(LCM)96.52%、液晶顯示器(LCD)3.48% (2023年)</t>
+          <t>54.41</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>光聯-光電業-上櫃</t>
+          <t>2751</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>聚酯加工絲94.91%、租賃4.56%、加工業務0.50%、聚酯原絲0.03% (2023年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>16.11</t>
+          <t>光明-紡織纖維-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
+          <t>紡織纖維右上</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>37.33</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2030,17 +2100,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4420</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>21887.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,27 +2120,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>40.56</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2080,72 +2150,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>11.81</t>
+          <t>28.36</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>123</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>38121</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-4.48</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2160,32 +2230,32 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>8783.0</t>
+          <t>459432.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>光明</t>
+          <t>信立</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2195,55 +2265,65 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>55.01</t>
+          <t>9.30%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>2706</t>
+          <t>-26.59%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>聚酯加工絲94.91%、租賃4.56%、加工業務0.50%、聚酯原絲0.03% (2023年)</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>光明-紡織纖維-上櫃</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>37.33</t>
+          <t>信立-塑膠工業-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
+          <t>塑膠工業右上</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2257,17 +2337,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21887.0</t>
+          <t>318.709</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,17 +2357,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>40.56</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2297,7 +2377,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2307,72 +2387,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>30.3</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>39985</t>
+          <t>579</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>87.0</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2382,95 +2462,105 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>459432.0</t>
+          <t>-21903695.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>信立</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>43.91%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>7285</t>
+          <t>16.27%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
+          <t>44.14</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>信立-塑膠工業-上櫃</t>
+          <t>15026</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>塑膠工業右上</t>
+          <t>人用藥品-錠劑類27.95%、人用藥品-膠囊類18.01%、人用藥品-注射類9.09%、針劑類製劑等7.84%、食品膠囊類5.78%、代理其他產品4.88%、食品錠劑類4.34%、原物料4.25%、代工產品- 動物用藥散劑3.29%、代工-食品錠劑2.18%、代工-食品膠囊1.80%、人用藥品-軟膏類1.78%、代工- 食品散劑1.28%、其他非針劑製劑1.23%、人用藥品-液劑類1.10%、人用藥品-栓劑類0.81%、代工-人用注射0.78%、人用藥品-散劑0.70%、醫療器材0.65%、食品散劑類0.61%、動物用藥-散劑0.46%、人用藥品-顆粒類0.29%、代工-人用膠囊0.27%、化妝品 -液劑類0.15%、代工-人用錠劑0.14%、化�菻~-霜劑0.10%、代工-化妝品液劑0.07%、食品顆粒類0.06%、化妝品-其他0.04%、食品-液劑類0.02%、代工- 化妝品霜劑0.02%、面膜0.01%、食品-其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
+          <t>生技醫療業右上</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2484,17 +2574,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4114</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1064.0</t>
+          <t>2149.688</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,200 +2594,210 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10.73</t>
+          <t>21.34</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>210.5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1531</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-3.10</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>33.05</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1175</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-0.18</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-0.21</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>61178.0</t>
+          <t>700283477.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>健喬</t>
+          <t>智易</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>54.85</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>20.67</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>89.43</t>
+          <t>15.36%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>15834</t>
+          <t>6.24%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>自製產品72.13%、外購25.75%、其他2.12% (2023年)</t>
+          <t>128.54</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>健喬-生技醫療業-上櫃</t>
+          <t>49580</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>智易-通信網路業-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
+          <t>通信網路業右上</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>72.32</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2711,17 +2811,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2149.688</t>
+          <t>509.886</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2731,27 +2831,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21.34</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>210.5</t>
+          <t>24.45</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2761,22 +2861,22 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2087</t>
+          <t>9255</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2786,87 +2886,87 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>-2.09</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>31.80</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
+          <t>-11.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>700283477.0</t>
+          <t>-13523162.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>智易</t>
+          <t>艾笛森</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2876,55 +2976,65 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>54.85</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>20.17</t>
+          <t>26.05</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>129.75</t>
+          <t>24.20%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>50131</t>
+          <t>5.39%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
+          <t>83.07</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>智易-通信網路業-上市</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>72.32</t>
+          <t>艾笛森-光電業-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2938,17 +3048,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>509.886</t>
+          <t>23595.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2958,27 +3068,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>31.47</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>24.45</t>
+          <t>190.5</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2988,72 +3098,72 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>54</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>8567</t>
+          <t>6728</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>31.80</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-1.30</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-2.77</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>92.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3068,90 +3178,100 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-13523162.0</t>
+          <t>10334985.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>艾笛森</t>
+          <t>順達</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>82.87</t>
+          <t>11.62%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>3820</t>
+          <t>4.09%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
+          <t>37.74</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>艾笛森-光電業-上市</t>
+          <t>29673</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>順達-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
+          <t>電腦及週邊設備業右上</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3165,17 +3285,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3045</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4827.964</t>
+          <t>5524.671</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3185,27 +3305,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>61.6</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3215,72 +3335,72 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>23.86</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>2479</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>205.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>67.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3295,32 +3415,32 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>297423899.0</t>
+          <t>924006711.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>安馳</t>
+          <t>台灣大</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3330,55 +3450,65 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>18.57</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>19.45</t>
+          <t>25.82</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>16.46</t>
+          <t>19.29%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>5390</t>
+          <t>9.74%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>類比IC27.30%、邏輯IC26.06%、混合信號積體電路(IC)23.88%、其他22.76% (2023年)</t>
+          <t>128.54</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>安馳-電子通路業-上市</t>
+          <t>439345</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>商品銷售66.11%、電信及加值服務30.49%、有線電視及寬頻服務2.77%、其他0.57%、其他營業收入0.06% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>29.54</t>
+          <t>台灣大-通信網路業-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
+          <t>通信網路業右上</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3392,17 +3522,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>2852</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23595.0</t>
+          <t>794.109</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3412,17 +3542,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>31.47</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3432,7 +3562,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>190.5</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3442,72 +3572,72 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>2073</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-2.77</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3522,90 +3652,100 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>10334985.0</t>
+          <t>72768763.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>順達</t>
+          <t>第一保</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>37.36</t>
+          <t>30.37%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>29520</t>
+          <t>8.19%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>順達-電腦及週邊設備業-上櫃</t>
+          <t>9261</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>簽單保費114.65%、再保險保費5.61%、再保佣金3.58%、利息收入2.42%、透過損益按公允價值衡量之金1.39%、透過其他綜合損益按公允價值1.16%、投資性不動產0.75%、手續費0.35%、投資兌換收益0.24%、兌換利益 -非投資0.15%、預期信用減損損失及迴轉利益0.10%、其他業務 -其他0.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>第一保-金融保險-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
+          <t>金融保險右上</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3619,17 +3759,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5524.671</t>
+          <t>2057.376</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3639,200 +3779,210 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2528</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>117.0</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>136129623.0</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>聯邦銀</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>3470</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>-1.71</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>924006711.0</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>台灣大</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>18.57</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>25.6</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>129.75</t>
-        </is>
-      </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>435622</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>商品銷售68.83%、行動通訊23.85%、其他4.99%、數據通信1.77%、國際網路服務0.29%、市內網路服務0.24%、長途網路服務0.03% (2023年)</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>台灣大-通信網路業-上市</t>
+          <t>70876</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>28.24</t>
+          <t>聯邦銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
+          <t>金融保險右上</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3846,17 +3996,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3026</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>525.048</t>
+          <t>667.066</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3866,142 +4016,142 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>26.02</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1455</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>-0.44</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>611</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>-2.09</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>56.0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>-4522141.0</t>
+          <t>69146948.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>禾伸堂</t>
+          <t>台產</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4011,55 +4161,65 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>19.26</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>32.01</t>
+          <t>34.26%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>15096</t>
+          <t>12.99%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>被動元件42.33%、主動元件26.27%、系統模組18.76%、其他電子零組件12.64% (2023年)</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>禾伸堂-電子零組件業-上市</t>
+          <t>12586</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>60.18</t>
+          <t>台產-金融保險-上市</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
+          <t>金融保險右上</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS16" t="inlineStr">
+      <c r="AU16" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4073,17 +4233,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>794.109</t>
+          <t>9834.046</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4093,200 +4253,210 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>32.58</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>5958</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>28.15</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>-6005526.0</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>台中銀</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>1311</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>43.0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>72768763.0</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>第一保</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>金融保險</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>13.37</t>
-        </is>
-      </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>9035</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>簽單保費114.65%、再保險保費5.61%、再保佣金3.58%、利息收入2.42%、透過損益按公允價值衡量之金1.39%、透過其他綜合損益按公允價值1.16%、投資性不動產0.75%、手續費0.35%、投資兌換收益0.24%、兌換利益 -非投資0.15%、預期信用減損損失及迴轉利益0.10%、其他業務 -其他0.03% (2024年)</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>第一保-金融保險-上市</t>
+          <t>118653</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
+          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>台中銀-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
           <t>金融保險右上</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>28.88</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS17" t="inlineStr">
+      <c r="AU17" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4300,17 +4470,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2057.376</t>
+          <t>32683.49</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4320,27 +4490,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>16.45</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4350,72 +4520,72 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>131</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1528</t>
+          <t>16443</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
           <t>0.29</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4425,37 +4595,37 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>136129623.0</t>
+          <t>4707343042.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>聯邦銀</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4465,55 +4635,65 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>14.02</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>13.37</t>
+          <t>30.48%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>69864</t>
+          <t>24.77%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
+          <t>18.15</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>聯邦銀-金融保險-上市</t>
+          <t>270289</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>陽明-航運業-上市</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
+          <t>航運業右上</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>97.52</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS18" t="inlineStr">
+      <c r="AU18" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4527,17 +4707,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>667.066</t>
+          <t>763.617</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4547,27 +4727,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>26.02</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>31.65</t>
+          <t>30.4</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4577,72 +4757,72 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4652,37 +4832,37 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>69146948.0</t>
+          <t>-25694554.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>台產</t>
+          <t>榮運</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4692,57 +4872,67 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>13.37</t>
+          <t>20.90%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>12387</t>
+          <t>12.07%</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+          <t>18.15</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>台產-金融保險-上市</t>
+          <t>34522</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>榮運-航運業-上市</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
+          <t>航運業右上</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>33.32</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS19" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -4754,17 +4944,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9834.046</t>
+          <t>27417.669</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4774,27 +4964,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>32.58</t>
+          <t>16.42</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20.55</t>
+          <t>227.0</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4804,72 +4994,72 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>106</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>8402</t>
+          <t>8084</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>104.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -4884,32 +5074,32 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>-6005526.0</t>
+          <t>9811690255.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
@@ -4919,55 +5109,65 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>14.13</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>53.49</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>14.17</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>13.37</t>
+          <t>35.32%</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>117274</t>
+          <t>29.75%</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
+          <t>18.15</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>497960</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>長榮-航運業-上市</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
+          <t>航運業右上</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>268.04</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS20" t="inlineStr">
+      <c r="AU20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4981,17 +5181,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>227.325</t>
+          <t>2661.239</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5001,27 +5201,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>24.55</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>206.0</t>
+          <t>96.6</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5031,72 +5231,72 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>599</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5106,37 +5306,37 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>165406333.0</t>
+          <t>268171772.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>晶華</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -5146,55 +5346,65 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>20.48</t>
+          <t>19.15</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>122.86</t>
+          <t>24.79%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>27583</t>
+          <t>12.81%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>餐旅服務86.64%、租賃10.95%、技術服務2.40% (2024年)</t>
+          <t>184.39</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>晶華-觀光事業-上市</t>
+          <t>44275</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>36.11</t>
+          <t>創見-半導體業-上市</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
+          <t>半導體業右上</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>46.12</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5208,17 +5418,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>32683.49</t>
+          <t>45457.574</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5228,17 +5438,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>-3.67</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5248,7 +5458,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>74.8</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5258,72 +5468,72 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>28.75</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>41</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>20214</t>
+          <t>11659</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>198.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>73.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -5333,37 +5543,37 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>73</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>4707343042.0</t>
+          <t>3185310737.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>銘旺科</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -5373,55 +5583,65 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>15.31</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>18.12</t>
+          <t>4.82%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>272035</t>
+          <t>-27.51%</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>遠洋貨運71.90%、近洋貨運11.86%、其他營業收入9.11%、其他3.41%、艙租2.27%、船舶出租及傭船1.44% (2023年)</t>
+          <t>83.07</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>陽明-航運業-上市</t>
+          <t>5477</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>97.52</t>
+          <t>銘旺科-光電業-上市</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS22" t="inlineStr">
+      <c r="AU22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5435,17 +5655,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>763.617</t>
+          <t>1688.616</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5455,142 +5675,142 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>17.52</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>30.4</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>1516</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>-1.39</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>-25694554.0</t>
+          <t>67636513.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>榮運</t>
+          <t>春源</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5600,57 +5820,67 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>12.42</t>
+          <t>12.73</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>18.12</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>34469</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>榮運-航運業-上市</t>
+          <t>13601</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>春源-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
+          <t>鋼鐵工業右上</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS23" t="inlineStr">
-        <is>
-          <t>N</t>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -5662,17 +5892,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>27417.669</t>
+          <t>8532.003</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5682,17 +5912,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5702,7 +5932,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>227.0</t>
+          <t>33.1</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -5712,37 +5942,37 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>8452</t>
+          <t>7068</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -5752,27 +5982,27 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -5792,12 +6022,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -5807,17 +6037,17 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>9811690255.0</t>
+          <t>360057475.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>遠東新</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -5827,55 +6057,65 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>14.16</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>53.49</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>18.16</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>18.12</t>
+          <t>19.43%</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>496877</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>62.68</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>181730</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>268.04</t>
+          <t>遠東新-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
+          <t>紡織纖維右上</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>43.67</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS24" t="inlineStr">
+      <c r="AU24" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5889,17 +6129,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>468.919</t>
+          <t>323.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5909,27 +6149,27 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>25.75</t>
+          <t>25.1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -5939,57 +6179,57 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>1271</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -5999,110 +6239,120 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>6214047.0</t>
+          <t>34098.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>宏盛</t>
+          <t>台翰</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>12.62</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>50.28</t>
+          <t>16.16%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>12757</t>
+          <t>8.80%</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>住宅大樓85.87%、其他14.13% (2023年)</t>
+          <t>66.3</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>宏盛-建材營造-上市</t>
+          <t>2075</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>30.84</t>
+          <t>台翰-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS25" t="inlineStr">
+      <c r="AU25" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6116,17 +6366,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>1319</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2661.239</t>
+          <t>3892.723</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6136,142 +6386,142 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>24.55</t>
+          <t>15.13</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>4556</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>-0.72</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>96.6</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>1203</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>78.0</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>268171772.0</t>
+          <t>325421168.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>東陽</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6281,55 +6531,65 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>19.24</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>183.97</t>
+          <t>34.51%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>44490</t>
+          <t>19.30%</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
+          <t>43.96</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>創見-半導體業-上市</t>
+          <t>78666</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>自製-零組件84.81%、外購產品12.31%、其他2.88% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>46.12</t>
+          <t>東陽-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
+          <t>汽車工業右上</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>46.68</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS26" t="inlineStr">
+      <c r="AU26" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6343,17 +6603,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>45457.574</t>
+          <t>5917.155</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6363,142 +6623,142 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>11.58</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>13317</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>46.6</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>26.84</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>12350</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>-1.46</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>198.0</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>73.0</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>3185310737.0</t>
+          <t>298017810.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6508,1417 +6768,65 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>82.87</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>19.87</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>165270</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
+          <t>水泥工業右上</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AS27" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2421</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>13259.749</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>25.12</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>1959</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>-2.41</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>136.0</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>1331541535.0</t>
-        </is>
-      </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>建準</t>
-        </is>
-      </c>
-      <c r="AG28" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>14.1</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>18.96</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>32.01</t>
-        </is>
-      </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>28301</t>
-        </is>
-      </c>
-      <c r="AN28" t="inlineStr">
-        <is>
-          <t>DC風扇95.54%、AC風扇4.16%、材料0.30% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>建準-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AP28" t="inlineStr">
-        <is>
-          <t>電子零組件業平</t>
-        </is>
-      </c>
-      <c r="AQ28" t="inlineStr">
-        <is>
-          <t>28.96</t>
-        </is>
-      </c>
-      <c r="AR28" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS28" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1688.616</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-0.51</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>17.52</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>19.35</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>1622</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>-2.88</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>18.0</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr">
-        <is>
-          <t>67636513.0</t>
-        </is>
-      </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>春源</t>
-        </is>
-      </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>鋼鐵工業</t>
-        </is>
-      </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>9.9</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>12.64</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>41.25</t>
-        </is>
-      </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>13504</t>
-        </is>
-      </c>
-      <c r="AN29" t="inlineStr">
-        <is>
-          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>春源-鋼鐵工業-上市</t>
-        </is>
-      </c>
-      <c r="AP29" t="inlineStr">
-        <is>
-          <t>鋼鐵工業右上</t>
-        </is>
-      </c>
-      <c r="AQ29" t="inlineStr">
-        <is>
-          <t>18.94</t>
-        </is>
-      </c>
-      <c r="AR29" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS29" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1402</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>8532.003</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>33.1</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>3980</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>-1.49</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>360057475.0</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>遠東新</t>
-        </is>
-      </c>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>13.22</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>62.98</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>179857</t>
-        </is>
-      </c>
-      <c r="AN30" t="inlineStr">
-        <is>
-          <t>商品銷售67.66%、電信服務20.85%、其他營業收入8.99%、建造合同2.38%、證券買賣0.13% (2024年)</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>遠東新-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AP30" t="inlineStr">
-        <is>
-          <t>紡織纖維平</t>
-        </is>
-      </c>
-      <c r="AQ30" t="inlineStr">
-        <is>
-          <t>43.67</t>
-        </is>
-      </c>
-      <c r="AR30" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS30" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1319</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3892.723</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>15.13</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>122.0</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>10.62</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>3267</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>325421168.0</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>東陽</t>
-        </is>
-      </c>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>11.7</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>18.45</t>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>43.77</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>80737</t>
-        </is>
-      </c>
-      <c r="AN31" t="inlineStr">
-        <is>
-          <t>自製-汽車零組件-塑件67.38%、自製-汽車零組件-鐵件14.60%、外購產品11.23%、其他6.79% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>東陽-汽車工業-上市</t>
-        </is>
-      </c>
-      <c r="AP31" t="inlineStr">
-        <is>
-          <t>汽車工業右上</t>
-        </is>
-      </c>
-      <c r="AQ31" t="inlineStr">
-        <is>
-          <t>46.68</t>
-        </is>
-      </c>
-      <c r="AR31" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS31" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1218</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>800.152</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>13.48</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>20.4</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>857</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>-1.42</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>21560775.0</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>泰山</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>食品工業</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>13.76</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>19.12</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>10525</t>
-        </is>
-      </c>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>泰山-食品工業-上市</t>
-        </is>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
-          <t>食品工業右下</t>
-        </is>
-      </c>
-      <c r="AQ32" t="inlineStr">
-        <is>
-          <t>26.34</t>
-        </is>
-      </c>
-      <c r="AR32" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS32" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5917.155</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>11.58</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>12668</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>41.0</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>298017810.0</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>12.63</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>19.75</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>162610</t>
-        </is>
-      </c>
-      <c r="AN33" t="inlineStr">
-        <is>
-          <t>水泥及熟料100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AP33" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="AQ33" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="AR33" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS33" t="inlineStr">
+      <c r="AU27" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
